--- a/medicine/Pharmacie/Opothérapie/Opothérapie.xlsx
+++ b/medicine/Pharmacie/Opothérapie/Opothérapie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Opoth%C3%A9rapie</t>
+          <t>Opothérapie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
 opothérapie, sur le Wiktionnaire
-L'opothérapie est le traitement des maladies par des cellules d'origine animale provenant de tissus, d'organes, ou de leurs extraits, par exemple d'hormones sécrétées par les glandes endocrines ou d'enzymes sécrétées par des glandes exocrines. Elle est notamment utilisée dans le traitement de l'insuffisance pancréatique exocrine, secondaire à la pancréatite chronique, la résection pancréatique céphalique ou à la mucoviscidose. On utilise alors de la pancréatine, des enzymes pancréatiques gastroprotégées. L'opothérapie est par exemple utilisée dans le cas des hypothyroïdies fœtales : des hormones thyroïdiennes, notamment de la thyroxine, sont fournies au nouveau-né carencé[1].
+L'opothérapie est le traitement des maladies par des cellules d'origine animale provenant de tissus, d'organes, ou de leurs extraits, par exemple d'hormones sécrétées par les glandes endocrines ou d'enzymes sécrétées par des glandes exocrines. Elle est notamment utilisée dans le traitement de l'insuffisance pancréatique exocrine, secondaire à la pancréatite chronique, la résection pancréatique céphalique ou à la mucoviscidose. On utilise alors de la pancréatine, des enzymes pancréatiques gastroprotégées. L'opothérapie est par exemple utilisée dans le cas des hypothyroïdies fœtales : des hormones thyroïdiennes, notamment de la thyroxine, sont fournies au nouveau-né carencé.
 </t>
         </is>
       </c>
